--- a/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H2">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I2">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J2">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>2.495441003027496</v>
+        <v>2.561597003725999</v>
       </c>
       <c r="R2">
-        <v>2.495441003027496</v>
+        <v>10.246388014904</v>
       </c>
       <c r="S2">
-        <v>0.001108820607205688</v>
+        <v>0.0009773166692065311</v>
       </c>
       <c r="T2">
-        <v>0.001108820607205688</v>
+        <v>0.0005521609324299508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H3">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I3">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J3">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>209.1130940490549</v>
+        <v>225.227340143685</v>
       </c>
       <c r="R3">
-        <v>209.1130940490549</v>
+        <v>1351.36404086211</v>
       </c>
       <c r="S3">
-        <v>0.09291700650779855</v>
+        <v>0.0859301574616526</v>
       </c>
       <c r="T3">
-        <v>0.09291700650779855</v>
+        <v>0.07282277694045729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H4">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I4">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J4">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>1.775560552408556</v>
+        <v>1.821262620708667</v>
       </c>
       <c r="R4">
-        <v>1.775560552408556</v>
+        <v>10.927575724252</v>
       </c>
       <c r="S4">
-        <v>0.0007889499801692682</v>
+        <v>0.0006948596190705662</v>
       </c>
       <c r="T4">
-        <v>0.0007889499801692682</v>
+        <v>0.0005888690133855342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H5">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I5">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J5">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>1.266272215505118</v>
+        <v>1.277317611030667</v>
       </c>
       <c r="R5">
-        <v>1.266272215505118</v>
+        <v>7.663905666184</v>
       </c>
       <c r="S5">
-        <v>0.0005626535450770607</v>
+        <v>0.0004873302831458431</v>
       </c>
       <c r="T5">
-        <v>0.0005626535450770607</v>
+        <v>0.0004129952225642891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H6">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I6">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J6">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>4.068623903775733</v>
+        <v>4.625840189616333</v>
       </c>
       <c r="R6">
-        <v>4.068623903775733</v>
+        <v>27.755041137698</v>
       </c>
       <c r="S6">
-        <v>0.001807846397491641</v>
+        <v>0.001764879768293608</v>
       </c>
       <c r="T6">
-        <v>0.001807846397491641</v>
+        <v>0.001495673340881827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H7">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I7">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J7">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>90.79058884887154</v>
+        <v>98.43644525186349</v>
       </c>
       <c r="R7">
-        <v>90.79058884887154</v>
+        <v>393.745781007454</v>
       </c>
       <c r="S7">
-        <v>0.0403417575225514</v>
+        <v>0.0375560943669704</v>
       </c>
       <c r="T7">
-        <v>0.0403417575225514</v>
+        <v>0.02121831002936814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H8">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J8">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>0.2320179279482038</v>
+        <v>0.2638880360086667</v>
       </c>
       <c r="R8">
-        <v>0.2320179279482038</v>
+        <v>1.583328216052</v>
       </c>
       <c r="S8">
-        <v>0.0001030945069180216</v>
+        <v>0.0001006802303486102</v>
       </c>
       <c r="T8">
-        <v>0.0001030945069180216</v>
+        <v>8.532294334806275E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H9">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J9">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>19.44265030879793</v>
+        <v>23.202244677645</v>
       </c>
       <c r="R9">
-        <v>19.44265030879793</v>
+        <v>208.820202098805</v>
       </c>
       <c r="S9">
-        <v>0.008639118815044828</v>
+        <v>0.008852266946552261</v>
       </c>
       <c r="T9">
-        <v>0.008639118815044828</v>
+        <v>0.01125297591047427</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H10">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J10">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>0.1650858023958909</v>
+        <v>0.1876210096028889</v>
       </c>
       <c r="R10">
-        <v>0.1650858023958909</v>
+        <v>1.688589086426</v>
       </c>
       <c r="S10">
-        <v>7.33539840980296E-05</v>
+        <v>7.158235269308411E-05</v>
       </c>
       <c r="T10">
-        <v>7.33539840980296E-05</v>
+        <v>9.099527785750703E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H11">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J11">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>0.1177338415548354</v>
+        <v>0.1315854270768889</v>
       </c>
       <c r="R11">
-        <v>0.1177338415548354</v>
+        <v>1.184268843692</v>
       </c>
       <c r="S11">
-        <v>5.231368304163929E-05</v>
+        <v>5.020330329862444E-05</v>
       </c>
       <c r="T11">
-        <v>5.231368304163929E-05</v>
+        <v>6.38182926539154E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H12">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I12">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J12">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>0.3782873193993823</v>
+        <v>0.4765401742554444</v>
       </c>
       <c r="R12">
-        <v>0.3782873193993823</v>
+        <v>4.288861568299</v>
       </c>
       <c r="S12">
-        <v>0.0001680876344845462</v>
+        <v>0.000181812617351206</v>
       </c>
       <c r="T12">
-        <v>0.0001680876344845462</v>
+        <v>0.0002311196686257001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H13">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I13">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J13">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N13">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O13">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P13">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q13">
-        <v>8.441411468496399</v>
+        <v>10.14062718351283</v>
       </c>
       <c r="R13">
-        <v>8.441411468496399</v>
+        <v>60.843763101077</v>
       </c>
       <c r="S13">
-        <v>0.003750844431431386</v>
+        <v>0.003868916136394752</v>
       </c>
       <c r="T13">
-        <v>0.003750844431431386</v>
+        <v>0.003278769935080629</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H14">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I14">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J14">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N14">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O14">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P14">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q14">
-        <v>3.767219907908258</v>
+        <v>3.873902292255333</v>
       </c>
       <c r="R14">
-        <v>3.767219907908258</v>
+        <v>23.243413753532</v>
       </c>
       <c r="S14">
-        <v>0.001673920986589706</v>
+        <v>0.00147799567207157</v>
       </c>
       <c r="T14">
-        <v>0.001673920986589706</v>
+        <v>0.001252549190245126</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H15">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I15">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J15">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P15">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q15">
-        <v>315.6856884014305</v>
+        <v>340.6112311936949</v>
       </c>
       <c r="R15">
-        <v>315.6856884014305</v>
+        <v>3065.501080743255</v>
       </c>
       <c r="S15">
-        <v>0.1402713172840989</v>
+        <v>0.1299521483981891</v>
       </c>
       <c r="T15">
-        <v>0.1402713172840989</v>
+        <v>0.1651947918277304</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H16">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I16">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J16">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N16">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O16">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P16">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q16">
-        <v>2.680458905906818</v>
+        <v>2.754294852351778</v>
       </c>
       <c r="R16">
-        <v>2.680458905906818</v>
+        <v>24.788653671166</v>
       </c>
       <c r="S16">
-        <v>0.001191031191693833</v>
+        <v>0.001050835969591516</v>
       </c>
       <c r="T16">
-        <v>0.001191031191693833</v>
+        <v>0.001335819618078594</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H17">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I17">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J17">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N17">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O17">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P17">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q17">
-        <v>1.911616380950127</v>
+        <v>1.931686996085778</v>
       </c>
       <c r="R17">
-        <v>1.911616380950127</v>
+        <v>17.385182964772</v>
       </c>
       <c r="S17">
-        <v>0.0008494048281237223</v>
+        <v>0.0007369894242607637</v>
       </c>
       <c r="T17">
-        <v>0.0008494048281237223</v>
+        <v>0.000936858805496226</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H18">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I18">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J18">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N18">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O18">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P18">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q18">
-        <v>6.142161225009922</v>
+        <v>6.995656572089888</v>
       </c>
       <c r="R18">
-        <v>6.142161225009922</v>
+        <v>62.96090914880899</v>
       </c>
       <c r="S18">
-        <v>0.002729198939509327</v>
+        <v>0.002669027083496301</v>
       </c>
       <c r="T18">
-        <v>0.002729198939509327</v>
+        <v>0.003392859439997454</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H19">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I19">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J19">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N19">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O19">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P19">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q19">
-        <v>137.0611901252043</v>
+        <v>148.8654032418011</v>
       </c>
       <c r="R19">
-        <v>137.0611901252043</v>
+        <v>893.1924194508069</v>
       </c>
       <c r="S19">
-        <v>0.06090156885078994</v>
+        <v>0.05679606895414935</v>
       </c>
       <c r="T19">
-        <v>0.06090156885078994</v>
+        <v>0.04813266474448871</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H20">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I20">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J20">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N20">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O20">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P20">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q20">
-        <v>4.47664665693789</v>
+        <v>4.841042981687999</v>
       </c>
       <c r="R20">
-        <v>4.47664665693789</v>
+        <v>29.046257890128</v>
       </c>
       <c r="S20">
-        <v>0.001989146631144175</v>
+        <v>0.001846985296854697</v>
       </c>
       <c r="T20">
-        <v>0.001989146631144175</v>
+        <v>0.001565254879757173</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H21">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I21">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J21">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P21">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q21">
-        <v>375.134267755047</v>
+        <v>425.64666990978</v>
       </c>
       <c r="R21">
-        <v>375.134267755047</v>
+        <v>3830.82002918802</v>
       </c>
       <c r="S21">
-        <v>0.1666866121263414</v>
+        <v>0.1623954061040799</v>
       </c>
       <c r="T21">
-        <v>0.1666866121263414</v>
+        <v>0.2064365663501185</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H22">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I22">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J22">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N22">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O22">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P22">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q22">
-        <v>3.185231468701234</v>
+        <v>3.441919480296</v>
       </c>
       <c r="R22">
-        <v>3.185231468701234</v>
+        <v>30.977275322664</v>
       </c>
       <c r="S22">
-        <v>0.001415321094320038</v>
+        <v>0.00131318286103046</v>
       </c>
       <c r="T22">
-        <v>0.001415321094320038</v>
+        <v>0.001669314220915898</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H23">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I23">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J23">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N23">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O23">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P23">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q23">
-        <v>2.271603806075579</v>
+        <v>2.413943117232</v>
       </c>
       <c r="R23">
-        <v>2.271603806075579</v>
+        <v>21.725488055088</v>
       </c>
       <c r="S23">
-        <v>0.001009361114339165</v>
+        <v>0.0009209828257745569</v>
       </c>
       <c r="T23">
-        <v>0.001009361114339165</v>
+        <v>0.001170750680585616</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H24">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I24">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J24">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N24">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O24">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P24">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q24">
-        <v>7.298826770529959</v>
+        <v>8.742160125803998</v>
       </c>
       <c r="R24">
-        <v>7.298826770529959</v>
+        <v>78.67944113223599</v>
       </c>
       <c r="S24">
-        <v>0.00324315001707896</v>
+        <v>0.003335364151110947</v>
       </c>
       <c r="T24">
-        <v>0.00324315001707896</v>
+        <v>0.004239905175897236</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H25">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I25">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J25">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N25">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O25">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P25">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q25">
-        <v>162.8719675434638</v>
+        <v>186.030457459038</v>
       </c>
       <c r="R25">
-        <v>162.8719675434638</v>
+        <v>1116.182744754228</v>
       </c>
       <c r="S25">
-        <v>0.07237029195610231</v>
+        <v>0.0709755151924286</v>
       </c>
       <c r="T25">
-        <v>0.07237029195610231</v>
+        <v>0.06014924519833254</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H26">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I26">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J26">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N26">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O26">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P26">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q26">
-        <v>3.34750881049837</v>
+        <v>3.578117228262667</v>
       </c>
       <c r="R26">
-        <v>3.34750881049837</v>
+        <v>21.468703369576</v>
       </c>
       <c r="S26">
-        <v>0.001487427171141299</v>
+        <v>0.001365145886128709</v>
       </c>
       <c r="T26">
-        <v>0.001487427171141299</v>
+        <v>0.00115691297785761</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H27">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I27">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J27">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P27">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q27">
-        <v>280.5147161846455</v>
+        <v>314.60445373401</v>
       </c>
       <c r="R27">
-        <v>280.5147161846455</v>
+        <v>2831.44008360609</v>
       </c>
       <c r="S27">
-        <v>0.1246434989056572</v>
+        <v>0.1200298783897825</v>
       </c>
       <c r="T27">
-        <v>0.1246434989056572</v>
+        <v>0.1525816311474249</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H28">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I28">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J28">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N28">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O28">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P28">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q28">
-        <v>2.381825330893427</v>
+        <v>2.543995464887556</v>
       </c>
       <c r="R28">
-        <v>2.381825330893427</v>
+        <v>22.895959183988</v>
       </c>
       <c r="S28">
-        <v>0.00105833678554413</v>
+        <v>0.0009706012189286478</v>
       </c>
       <c r="T28">
-        <v>0.00105833678554413</v>
+        <v>0.001233825437170638</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H29">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I29">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J29">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N29">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O29">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P29">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q29">
-        <v>1.698640598094703</v>
+        <v>1.784196399099556</v>
       </c>
       <c r="R29">
-        <v>1.698640598094703</v>
+        <v>16.057767591896</v>
       </c>
       <c r="S29">
-        <v>0.0007547714801185579</v>
+        <v>0.0006807178800732162</v>
       </c>
       <c r="T29">
-        <v>0.0007547714801185579</v>
+        <v>0.0008653265827321704</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H30">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I30">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J30">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N30">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O30">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P30">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q30">
-        <v>5.457854682987858</v>
+        <v>6.461515395895778</v>
       </c>
       <c r="R30">
-        <v>5.457854682987858</v>
+        <v>58.153638563062</v>
       </c>
       <c r="S30">
-        <v>0.002425135171013427</v>
+        <v>0.002465238168048333</v>
       </c>
       <c r="T30">
-        <v>0.002425135171013427</v>
+        <v>0.003133803565360639</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H31">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I31">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J31">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N31">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O31">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P31">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q31">
-        <v>121.7910163827598</v>
+        <v>137.4990445930044</v>
       </c>
       <c r="R31">
-        <v>121.7910163827598</v>
+        <v>824.9942675580261</v>
       </c>
       <c r="S31">
-        <v>0.05411644217350455</v>
+        <v>0.05245950400677827</v>
       </c>
       <c r="T31">
-        <v>0.05411644217350455</v>
+        <v>0.04445757894016978</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H32">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I32">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J32">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N32">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O32">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P32">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q32">
-        <v>3.826259936466376</v>
+        <v>4.98650051803</v>
       </c>
       <c r="R32">
-        <v>3.826259936466376</v>
+        <v>19.94600207212</v>
       </c>
       <c r="S32">
-        <v>0.001700154746568736</v>
+        <v>0.00190248117490342</v>
       </c>
       <c r="T32">
-        <v>0.001700154746568736</v>
+        <v>0.001074857119052279</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H33">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I33">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J33">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P33">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q33">
-        <v>320.6331277636731</v>
+        <v>438.435962669925</v>
       </c>
       <c r="R33">
-        <v>320.6331277636731</v>
+        <v>2630.61577601955</v>
       </c>
       <c r="S33">
-        <v>0.1424696552576674</v>
+        <v>0.1672748578615856</v>
       </c>
       <c r="T33">
-        <v>0.1424696552576674</v>
+        <v>0.1417595407902872</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H34">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I34">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J34">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N34">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O34">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P34">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q34">
-        <v>2.722467170415451</v>
+        <v>3.545337923343334</v>
       </c>
       <c r="R34">
-        <v>2.722467170415451</v>
+        <v>21.27202754006</v>
       </c>
       <c r="S34">
-        <v>0.001209697082533812</v>
+        <v>0.001352639718665181</v>
       </c>
       <c r="T34">
-        <v>0.001209697082533812</v>
+        <v>0.00114631444213419</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H35">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I35">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J35">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N35">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O35">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P35">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q35">
-        <v>1.941575313128877</v>
+        <v>2.486474226753334</v>
       </c>
       <c r="R35">
-        <v>1.941575313128877</v>
+        <v>14.91884536052</v>
       </c>
       <c r="S35">
-        <v>0.000862716736251133</v>
+        <v>0.0009486553528223853</v>
       </c>
       <c r="T35">
-        <v>0.000862716736251133</v>
+        <v>0.0008039519441446949</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H36">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I36">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J36">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N36">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O36">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P36">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q36">
-        <v>6.238421433598196</v>
+        <v>9.004833495781666</v>
       </c>
       <c r="R36">
-        <v>6.238421433598196</v>
+        <v>54.02900097469</v>
       </c>
       <c r="S36">
-        <v>0.002771971059870861</v>
+        <v>0.003435580954402964</v>
       </c>
       <c r="T36">
-        <v>0.002771971059870861</v>
+        <v>0.002911533655864883</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H37">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I37">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J37">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N37">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O37">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P37">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q37">
-        <v>139.209218851166</v>
+        <v>191.6200653449675</v>
       </c>
       <c r="R37">
-        <v>139.209218851166</v>
+        <v>766.4802613798701</v>
       </c>
       <c r="S37">
-        <v>0.06185602079468543</v>
+        <v>0.07310809769986486</v>
       </c>
       <c r="T37">
-        <v>0.06185602079468543</v>
+        <v>0.04130435575903055</v>
       </c>
     </row>
   </sheetData>
